--- a/Assets/Game/Content/Data/LocalizeTable.xlsx
+++ b/Assets/Game/Content/Data/LocalizeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProj\NineLivesAtlier\Assets\Game\Content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35649F7F-0A75-41C2-8D3F-12E65F41322B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83604F-F17F-444A-B4D7-8A1260BEE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1166">
   <si>
     <t>#</t>
   </si>
@@ -1541,9 +1541,6 @@
     <t>Tutorial_Message_11_3</t>
   </si>
   <si>
-    <t>For example, if you refine this &lt;color=#E80011&gt;&lt;b&gt;Basic Fire Potion&lt;/color&gt;&lt;/b&gt;, you will get a &lt;color=#E80011&gt;&lt;b&gt;fire element&lt;/color&gt;&lt;/b&gt;.</t>
-  </si>
-  <si>
     <t>例如，如果你精炼了这瓶&lt;color=#E80011&gt;&lt;b&gt;初等火焰药剂&lt;/color&gt;&lt;/b&gt;，你会获得一个&lt;color=#E80011&gt;&lt;b&gt;火元素&lt;/color&gt;&lt;/b&gt;。</t>
   </si>
   <si>
@@ -3495,35 +3492,35 @@
   </si>
   <si>
     <t>UI_Button_Volume</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>UI_Button_CameraShakeSensitivity</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CameraShakeSensitivity</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>镜头晃动</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Sturdy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Sturdy_Desc</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>[Intro_Buff] Burn</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Tip_ChooseLevel_Sample</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3539,7 +3536,7 @@
       </rPr>
       <t>Boss</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3555,15 +3552,15 @@
       </rPr>
       <t>Tavern</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Lable_HighTemp_Desc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Tip_ChooseLevel_Sample_Desc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3589,7 +3586,7 @@
       </rPr>
       <t>_Desc</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3615,7 +3612,7 @@
       </rPr>
       <t>_Desc</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3642,7 +3639,7 @@
       </rPr>
       <t>Sample</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3669,42 +3666,42 @@
       </rPr>
       <t>Tavern</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Formal experiment</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>正式实验</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>在空白样本上尝试一下手头的药剂，或许会有新的收获。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>直面拥有特殊能力的造物，击败后即可进入下一阶段。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>休息一下。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Try the potionon the blank sample, maybe you will get something new.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Face the pureatures with special abilities, and defeat them to enter the next stage.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Take a break.</t>
   </si>
   <si>
     <t>Prototype_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Prototype_2</t>
@@ -3771,21 +3768,21 @@
   </si>
   <si>
     <t>这部分是为了新教程准备的叙事大纲迭代</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Tutorial_BranchTest_1</t>
   </si>
   <si>
     <t>卡牌分支测试</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Branch_Test1</t>
   </si>
   <si>
     <t>分支测试1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>分支测试2</t>
@@ -3795,19 +3792,19 @@
   </si>
   <si>
     <t>&lt;color=#844A4A&gt;&lt;b&gt;锈蚀之器：&lt;/color&gt;&lt;/b&gt;你每次&lt;color=#1A5A54&gt;&lt;b&gt;使用卡牌&lt;/color&gt;&lt;/b&gt;时，会受到5点伤害。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;color=#844A4A&gt;&lt;b&gt;Rusted Vessel:&lt;/color&gt;&lt;/b&gt; Each time you &lt;color=#1A5A54&gt;&lt;b&gt;use a potion&lt;/color&gt;&lt;/b&gt;, you will take 5 damage.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Character_EarthMage</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Character_EarthMage_Desc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3839,7 +3836,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3861,7 +3858,7 @@
       </rPr>
       <t>大地之子</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3943,7 +3940,7 @@
       </rPr>
       <t>🔥💦</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4024,7 +4021,7 @@
       </rPr>
       <t>🔥💦</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4055,100 +4052,100 @@
       </rPr>
       <t>Watcher</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Scientists believe that alchemy requires a calmer mind and scientific guidance. They found some potions from somewhere that seemed to be out of this era and might be useful.
 Initial hand size: 4
 maximum hand size: 5
 Element meter capacity: 10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A watcher as immovable as a mountain. The soul comes from the earth and will return to the earth.
 Initial hand size: 5
 maximum hand size: 5
 Element meter capacity: 6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>不动如山的守望者。灵魂来自大地，也将归于大地。
 初始手牌数：5
 初始手牌上限：5
 元素槽容量：6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Sturdy_Self_Desc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Reflect_Self_Desc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Reflect_Enemy_Desc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;获得&lt;/b&gt;{0}[Card_Calm]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;Gain&lt;/b&gt; {0} [Card_Calm].</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;Add&lt;/b&gt; {0} [Card_Stun].</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Reflect</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Reflect_Desc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Intro_Buff]冷静</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Intro_Buff]坚固</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>每次行动受到{buffStack}伤害。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害时，将其减少{buffStack}，然后层数减半（向下取整）。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Intro_Buff]反射</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害时，对敌方造成{buffStack}伤害，然后层数减半（向下取整）。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Sturdy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Sturdy_Desc</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Reflect</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Reflect_Desc</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Sturdy</t>
@@ -4158,148 +4155,148 @@
   </si>
   <si>
     <t>坚固</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>反射</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>根据层数减少受到的伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害时，根据层数反弹伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;获得&lt;/b&gt;{0}[Card_Sturdy]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;施加&lt;/b&gt;{0}[Card_Stun]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;获得&lt;/b&gt;{0}[Card_Reflect]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;施加&lt;/b&gt;{0}[Card_Reflect]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EarthElementBottle</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>BasicEarthPotion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EarthPotion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Earth Element Bottle</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Basic Earth Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Earth Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>土元素瓶</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>基础大地药剂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>大地药剂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Focus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Focus_Desc</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>集中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Focus</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>如果上一次行动后未受到伤害则触发。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Effect_Draw_Focus_Desc</t>
   </si>
   <si>
     <t>[Card_Focus]：抓{0}张牌</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Card_Focus]: Draw {0} cards.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Earth Core Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地核药剂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EarthCorePotion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Card_Unstable]：失去{0}点生命</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;Gain&lt;/b&gt; {0} [Card_Sturdy]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;Gain&lt;/b&gt; {0} [Card_Reflect]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;Add&lt;/b&gt; {0} [Card_Reflect]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GreaterEarthPotion</t>
   </si>
   <si>
     <t>Greater Earth Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>高等大地药剂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VitalityPotion</t>
   </si>
   <si>
     <t>Vitality Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4312,124 +4309,213 @@
       </rPr>
       <t>健体药剂</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>IronbonePotion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Ironbone Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>铁骨药剂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ShacklePotion</t>
   </si>
   <si>
     <t>Shackle Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>束缚药剂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有层数时，敌人无法攻击（上限为1）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>When there are stacks, cards with [Card_Unstable] will 100% trigger.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>When there are stacks (maxmium 1) , cannot attack.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Reduces incoming damage based on stacks.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Reflects damage equal to stacks when hit.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Triggers if you took no damage since your last action.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Reflection Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>反射药剂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Effect_Damage_Focus_Desc</t>
   </si>
   <si>
     <t>[Card_Peace]：造成{0}点伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Card_Focus]：造成{0}点伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Card_Peace]: Deal {0} damage.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Card_Focus]: Deal {0} damage.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[Card_Cooldown]: Deal {0} damage.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ReflectionPotion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>StoneskinPotion</t>
   </si>
   <si>
     <t>Stoneskin Potion</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>石肤药剂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>UI_Shop_NextExp</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>下一场实验：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Next experienment: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Card_Tailwind</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Card_Tailwind_Desc</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘风</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tailwind</t>
+  </si>
+  <si>
+    <t>Tip_Card_Windborne</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Card_Windborne_Desc</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺风</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连续使用卡牌会积累顺风，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>精炼或抽牌后顺风归零。</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windborne</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Card_Tailwind]不小于效果值时触发。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>For example, if you refine this &lt;color=#E80011&gt;&lt;b&gt;Basic Fire Potion&lt;/color&gt;&lt;/b&gt;, you will get a &lt;color=#E80011&gt;&lt;b&gt;fire element&lt;/color&gt;&lt;/b&gt;.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain tailwind by using cards consecutively. Refining or drawing resets tailwind.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triggers when [Card_Tailwind] is greater than or equal to the effect value.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Damage_Windborne_Desc</t>
+  </si>
+  <si>
+    <t>[Card_Windborne]: Deal {0} damage.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Card_Windborne]：造成{0}点伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4549,6 +4635,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4683,81 +4775,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5039,7 +5136,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.8984375" style="11" customWidth="1"/>
     <col min="2" max="2" width="25.69921875" style="11" customWidth="1"/>
@@ -5047,16 +5144,16 @@
     <col min="4" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="87" customHeight="1">
+    <row r="1" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.399999999999999">
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -5067,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.399999999999999">
+    <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -5078,7 +5175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.399999999999999">
+    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
@@ -5089,7 +5186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.399999999999999">
+    <row r="5" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +5197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.399999999999999">
+    <row r="6" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
@@ -5111,53 +5208,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:3" ht="20.399999999999999">
+    <row r="8" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="94.5" customHeight="1">
+    <row r="9" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.296875" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="2" max="2" width="53.69921875" customWidth="1"/>
+    <col min="3" max="3" width="58.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5168,482 +5265,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" t="s">
         <v>779</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>780</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>782</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>783</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>785</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>786</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>788</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>789</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>791</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>792</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>794</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>795</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>797</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>798</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>800</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>801</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>803</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>804</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>806</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>807</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>809</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>810</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>812</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>813</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>815</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>816</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>818</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>819</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>821</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>822</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>824</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>825</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>827</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>828</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>827</v>
+      </c>
+      <c r="C21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>830</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>827</v>
+      </c>
+      <c r="C22" t="s">
         <v>828</v>
       </c>
-      <c r="C21" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>831</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>827</v>
+      </c>
+      <c r="C23" t="s">
         <v>828</v>
       </c>
-      <c r="C22" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>832</v>
       </c>
-      <c r="B23" t="s">
-        <v>828</v>
-      </c>
-      <c r="C23" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>833</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>834</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>836</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>837</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>839</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>840</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>842</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>843</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>845</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>846</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>848</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>849</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>851</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>852</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>854</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>855</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>857</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>858</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>860</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>861</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>863</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>864</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>866</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>867</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>869</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>870</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>872</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>873</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>875</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>876</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>878</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>879</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>881</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>882</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B42" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>884</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C42" s="38" t="s">
+      <c r="B43" t="s">
+        <v>885</v>
+      </c>
+      <c r="C43" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>887</v>
+      </c>
+      <c r="B44" t="s">
+        <v>888</v>
+      </c>
+      <c r="C44" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>890</v>
+      </c>
+      <c r="B45" t="s">
+        <v>891</v>
+      </c>
+      <c r="C45" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>893</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>1130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>885</v>
-      </c>
-      <c r="B43" t="s">
-        <v>886</v>
-      </c>
-      <c r="C43" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>888</v>
-      </c>
-      <c r="B44" t="s">
-        <v>889</v>
-      </c>
-      <c r="C44" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>891</v>
-      </c>
-      <c r="B45" t="s">
-        <v>892</v>
-      </c>
-      <c r="C45" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>894</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>1131</v>
       </c>
       <c r="C46" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>894</v>
+      </c>
+      <c r="B47" t="s">
         <v>895</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>896</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>897</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>898</v>
       </c>
       <c r="B48" t="s">
         <v>319</v>
@@ -5652,502 +5749,554 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>1088</v>
+        <v>1080</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>1087</v>
       </c>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
         <v>1082</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="30" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>1089</v>
+      <c r="B54" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>1088</v>
       </c>
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>1107</v>
+        <v>1103</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>1106</v>
       </c>
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+    </row>
+    <row r="58" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="40" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>904</v>
+      </c>
+      <c r="B62" t="s">
         <v>905</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C62" t="s">
         <v>906</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
+      <c r="B63" t="s">
         <v>908</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C63" t="s">
         <v>909</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
+      <c r="B64" t="s">
         <v>911</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>912</v>
       </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
+      <c r="B65" t="s">
         <v>913</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C65" t="s">
         <v>914</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
+      <c r="B66" t="s">
         <v>916</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C66" t="s">
         <v>917</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
+      <c r="B67" t="s">
         <v>919</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C67" t="s">
         <v>920</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
+      <c r="B68" t="s">
         <v>922</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C68" t="s">
         <v>923</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="B69" t="s">
         <v>925</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C69" t="s">
         <v>926</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="B70" t="s">
         <v>928</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C70" t="s">
         <v>929</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="B71" t="s">
         <v>931</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C71" t="s">
         <v>932</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="B73" t="s">
         <v>934</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C73" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>935</v>
       </c>
-      <c r="C69" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="B74" t="s">
         <v>936</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C74" t="s">
         <v>937</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="B76" t="s">
         <v>939</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C76" t="s">
         <v>940</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="B77" t="s">
         <v>942</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C77" t="s">
         <v>943</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>945</v>
       </c>
-      <c r="B74" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="B79" t="s">
         <v>946</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C79" t="s">
         <v>947</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="B81" t="s">
         <v>949</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C81" t="s">
         <v>950</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="B82" t="s">
         <v>952</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C82" t="s">
         <v>953</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="B83" t="s">
         <v>955</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C83" t="s">
         <v>956</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="B84" t="s">
         <v>958</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C84" t="s">
         <v>959</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="B85" t="s">
         <v>961</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>962</v>
       </c>
-      <c r="C81" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="B86" t="s">
         <v>963</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C86" t="s">
         <v>964</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="B88" t="s">
         <v>966</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C88" t="s">
         <v>967</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="B89" t="s">
         <v>969</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C89" t="s">
         <v>970</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="B90" t="s">
         <v>972</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C90" t="s">
         <v>973</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="B91" t="s">
         <v>975</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C91" t="s">
         <v>976</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="B92" t="s">
         <v>978</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C92" t="s">
         <v>979</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B93" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="26" t="s">
+      <c r="C93" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>982</v>
+      </c>
+      <c r="B94" t="s">
+        <v>983</v>
+      </c>
+      <c r="C94" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>985</v>
+      </c>
+      <c r="B95" t="s">
+        <v>986</v>
+      </c>
+      <c r="C95" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A97" s="25" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C97" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A98" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="B89" t="s">
-        <v>981</v>
-      </c>
-      <c r="C89" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>983</v>
-      </c>
-      <c r="B90" t="s">
-        <v>984</v>
-      </c>
-      <c r="C90" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>986</v>
-      </c>
-      <c r="B91" t="s">
-        <v>987</v>
-      </c>
-      <c r="C91" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.6">
-      <c r="A93" s="25" t="s">
+      <c r="B98" s="26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A99" s="26" t="s">
         <v>1008</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B99" s="26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A100" s="26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A101" s="26" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B101" s="27" t="s">
         <v>1015</v>
       </c>
-      <c r="C93" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.6">
-      <c r="A94" s="25" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.6">
-      <c r="A95" s="26" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.6">
-      <c r="A96" s="26" t="s">
+      <c r="C101" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A102" s="26" t="s">
         <v>1013</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B102" t="s">
         <v>1023</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C102" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.6">
-      <c r="A97" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C97" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.6">
-      <c r="A98" s="26" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>1021</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6160,14 +6309,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.296875" customWidth="1"/>
     <col min="2" max="2" width="31.796875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6178,52 +6327,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B2" t="s">
         <v>989</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>990</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>992</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>993</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>995</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>996</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>998</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>999</v>
       </c>
-      <c r="C5" t="s">
-        <v>1000</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6236,14 +6385,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.69921875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="67.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6254,121 +6403,121 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>1025</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="24" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="24" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="24" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="24" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="24" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="24" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="24" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="24" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="24" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="24" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="24" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="24" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="24" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="24" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="24" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="24" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="24" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="24" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="24" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="24" t="s">
-        <v>1046</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6377,18 +6526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="22.296875" customWidth="1"/>
     <col min="3" max="3" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6399,7 +6548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6410,7 +6559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6421,7 +6570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -6432,7 +6581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -6443,7 +6592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -6454,7 +6603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6465,7 +6614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -6476,7 +6625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -6487,7 +6636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -6498,7 +6647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6509,7 +6658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -6520,7 +6669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -6531,9 +6680,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -6542,18 +6691,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>1002</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="C15" s="24" t="s">
         <v>1003</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -6564,7 +6713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -6575,7 +6724,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -6586,7 +6735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -6597,7 +6746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6608,7 +6757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -6619,7 +6768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -6630,7 +6779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -6641,7 +6790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -6652,7 +6801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -6663,7 +6812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -6674,7 +6823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -6685,7 +6834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="138">
+    <row r="32" spans="1:3" ht="138" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -6696,7 +6845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -6707,7 +6856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -6718,7 +6867,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -6729,7 +6878,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -6740,7 +6889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -6751,7 +6900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -6762,7 +6911,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -6773,7 +6922,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -6784,19 +6933,19 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="38" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>1148</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>1149</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6809,14 +6958,14 @@
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.09765625" customWidth="1"/>
     <col min="2" max="2" width="16.296875" customWidth="1"/>
     <col min="3" max="3" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6827,7 +6976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -6835,7 +6984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -6846,7 +6995,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -6857,7 +7006,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -6868,7 +7017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -6879,23 +7028,23 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>1050</v>
       </c>
-      <c r="C8" s="24" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>126</v>
       </c>
@@ -6906,7 +7055,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>129</v>
       </c>
@@ -6917,7 +7066,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>132</v>
       </c>
@@ -6928,7 +7077,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>135</v>
       </c>
@@ -6939,7 +7088,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>138</v>
       </c>
@@ -6950,7 +7099,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>141</v>
       </c>
@@ -6961,7 +7110,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>144</v>
       </c>
@@ -6972,7 +7121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>147</v>
       </c>
@@ -6983,7 +7132,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>150</v>
       </c>
@@ -6994,7 +7143,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>153</v>
       </c>
@@ -7005,7 +7154,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>156</v>
       </c>
@@ -7016,7 +7165,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>159</v>
       </c>
@@ -7027,7 +7176,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>162</v>
       </c>
@@ -7038,7 +7187,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>165</v>
       </c>
@@ -7049,7 +7198,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>168</v>
       </c>
@@ -7060,7 +7209,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>171</v>
       </c>
@@ -7071,7 +7220,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>174</v>
       </c>
@@ -7082,7 +7231,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>176</v>
       </c>
@@ -7093,7 +7242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>179</v>
       </c>
@@ -7104,7 +7253,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>182</v>
       </c>
@@ -7115,7 +7264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>185</v>
       </c>
@@ -7126,7 +7275,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>188</v>
       </c>
@@ -7137,7 +7286,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>191</v>
       </c>
@@ -7148,7 +7297,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>194</v>
       </c>
@@ -7159,7 +7308,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>197</v>
       </c>
@@ -7170,7 +7319,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>200</v>
       </c>
@@ -7181,7 +7330,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>203</v>
       </c>
@@ -7192,7 +7341,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>206</v>
       </c>
@@ -7203,7 +7352,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>209</v>
       </c>
@@ -7214,7 +7363,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>212</v>
       </c>
@@ -7225,7 +7374,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>215</v>
       </c>
@@ -7236,7 +7385,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>218</v>
       </c>
@@ -7247,7 +7396,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>221</v>
       </c>
@@ -7258,7 +7407,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>224</v>
       </c>
@@ -7269,7 +7418,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>227</v>
       </c>
@@ -7280,7 +7429,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>229</v>
       </c>
@@ -7291,7 +7440,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>232</v>
       </c>
@@ -7302,7 +7451,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>235</v>
       </c>
@@ -7313,7 +7462,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>238</v>
       </c>
@@ -7324,7 +7473,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>241</v>
       </c>
@@ -7335,7 +7484,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>244</v>
       </c>
@@ -7346,7 +7495,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>247</v>
       </c>
@@ -7357,7 +7506,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>250</v>
       </c>
@@ -7368,7 +7517,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>252</v>
       </c>
@@ -7379,7 +7528,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>254</v>
       </c>
@@ -7390,7 +7539,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>257</v>
       </c>
@@ -7401,7 +7550,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>259</v>
       </c>
@@ -7412,7 +7561,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>262</v>
       </c>
@@ -7423,7 +7572,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>264</v>
       </c>
@@ -7434,7 +7583,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>266</v>
       </c>
@@ -7445,7 +7594,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>269</v>
       </c>
@@ -7456,7 +7605,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>271</v>
       </c>
@@ -7467,7 +7616,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>273</v>
       </c>
@@ -7478,7 +7627,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>276</v>
       </c>
@@ -7489,173 +7638,173 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
         <v>1094</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B69" s="33" t="s">
         <v>1097</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C69" s="33" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="33" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B70" s="33" t="s">
         <v>1098</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C70" s="33" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="33" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B71" s="33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>1111</v>
       </c>
-      <c r="C71" s="33" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="C73" s="8" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="35" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="39" t="s">
+      <c r="B74" s="35" t="s">
         <v>1124</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="C74" s="35" t="s">
         <v>1125</v>
       </c>
-      <c r="C74" s="39" t="s">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="8" t="s">
+      <c r="B75" s="35" t="s">
         <v>1127</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="C75" s="35" t="s">
         <v>1128</v>
       </c>
-      <c r="C75" s="39" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="39" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="B76" s="39" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="8" t="s">
+      <c r="B77" s="35" t="s">
         <v>1145</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="C77" s="35" t="s">
         <v>1146</v>
       </c>
-      <c r="C77" s="39" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>1119</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7668,14 +7817,14 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.796875" customWidth="1"/>
     <col min="2" max="2" width="16.296875" customWidth="1"/>
     <col min="3" max="3" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7686,7 +7835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -7697,7 +7846,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>281</v>
       </c>
@@ -7708,7 +7857,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -7719,18 +7868,18 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="265.2">
+    <row r="5" spans="1:5" ht="265.2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>287</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>1060</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>288</v>
       </c>
@@ -7741,7 +7890,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -7752,7 +7901,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.8">
+    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -7763,7 +7912,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="153.6">
+    <row r="9" spans="1:5" ht="153.6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>297</v>
       </c>
@@ -7775,7 +7924,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="16.8">
+    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -7786,7 +7935,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="151.80000000000001">
+    <row r="11" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>303</v>
       </c>
@@ -7797,7 +7946,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.8">
+    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>306</v>
       </c>
@@ -7808,47 +7957,47 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="207">
+    <row r="13" spans="1:5" ht="207" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>309</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.8">
+    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>1056</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="151.80000000000001">
-      <c r="A15" s="24" t="s">
-        <v>1057</v>
-      </c>
       <c r="B15" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>1064</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7861,14 +8010,14 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.8984375" customWidth="1"/>
     <col min="2" max="2" width="46.8984375" customWidth="1"/>
     <col min="3" max="3" width="41.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7879,18 +8028,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>311</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>313</v>
       </c>
@@ -7898,10 +8047,10 @@
         <v>314</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -7912,7 +8061,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -7923,7 +8072,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -7934,7 +8083,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>324</v>
       </c>
@@ -7945,7 +8094,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -7953,10 +8102,10 @@
         <v>328</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>329</v>
       </c>
@@ -7967,51 +8116,51 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>1005</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>1006</v>
-      </c>
       <c r="C10" s="24" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="24" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="24" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A12" s="24" t="s">
+    <row r="13" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C13" s="24" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="24" customFormat="1">
-      <c r="A13" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>332</v>
       </c>
@@ -8022,7 +8171,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>335</v>
       </c>
@@ -8033,7 +8182,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.9" customHeight="1">
+    <row r="17" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>338</v>
       </c>
@@ -8044,7 +8193,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>341</v>
       </c>
@@ -8056,7 +8205,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8066,17 +8215,17 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.796875" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" customWidth="1"/>
     <col min="3" max="3" width="9.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8087,7 +8236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -8098,7 +8247,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>347</v>
       </c>
@@ -8109,7 +8258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.35" customHeight="1">
+    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>348</v>
       </c>
@@ -8120,7 +8269,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>351</v>
       </c>
@@ -8131,7 +8280,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>354</v>
       </c>
@@ -8142,7 +8291,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>357</v>
       </c>
@@ -8153,7 +8302,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>360</v>
       </c>
@@ -8164,7 +8313,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -8175,7 +8324,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>366</v>
       </c>
@@ -8186,7 +8335,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>369</v>
       </c>
@@ -8197,7 +8346,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -8208,7 +8357,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>375</v>
       </c>
@@ -8219,7 +8368,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>378</v>
       </c>
@@ -8230,7 +8379,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>381</v>
       </c>
@@ -8241,18 +8390,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>384</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>385</v>
       </c>
@@ -8263,7 +8412,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>388</v>
       </c>
@@ -8274,7 +8423,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>391</v>
       </c>
@@ -8285,7 +8434,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -8296,7 +8445,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>397</v>
       </c>
@@ -8308,7 +8457,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8318,17 +8467,17 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.296875" customWidth="1"/>
     <col min="2" max="2" width="76.796875" customWidth="1"/>
     <col min="3" max="3" width="54.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8339,7 +8488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.8">
+    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -8347,10 +8496,10 @@
         <v>401</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>402</v>
       </c>
@@ -8361,7 +8510,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>405</v>
       </c>
@@ -8372,7 +8521,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>408</v>
       </c>
@@ -8383,7 +8532,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>411</v>
       </c>
@@ -8394,7 +8543,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>414</v>
       </c>
@@ -8405,7 +8554,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>417</v>
       </c>
@@ -8416,7 +8565,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>420</v>
       </c>
@@ -8427,7 +8576,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>423</v>
       </c>
@@ -8438,7 +8587,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>426</v>
       </c>
@@ -8449,7 +8598,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>429</v>
       </c>
@@ -8460,7 +8609,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>432</v>
       </c>
@@ -8471,7 +8620,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>435</v>
       </c>
@@ -8482,7 +8631,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -8493,803 +8642,803 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>441</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="41" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>444</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>447</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>450</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>453</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>456</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>459</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>462</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>465</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>468</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>471</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>474</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>477</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>480</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>483</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>486</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>489</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>492</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>495</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>498</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C35" s="3" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>501</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>504</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C37" s="3" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>507</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>510</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>513</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>516</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>519</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>522</v>
       </c>
       <c r="B44">
         <v>111</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>524</v>
       </c>
       <c r="B45">
         <v>111</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>526</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C47" s="3" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>529</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>532</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C49" s="3" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>535</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C51" s="3" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>538</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>539</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>541</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>542</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>544</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>545</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>547</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C55" s="3" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>550</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C56" s="3" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>553</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>554</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>556</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>557</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>559</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>560</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>562</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>563</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>565</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>566</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>568</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>569</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>571</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>572</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>574</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>575</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>577</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C67" s="3" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>580</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>581</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>583</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>584</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>586</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>587</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>589</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>590</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>592</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>593</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>595</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>596</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>598</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>599</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>600</v>
       </c>
-      <c r="D76" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>601</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>602</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>604</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>605</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>607</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>608</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>610</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>611</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>613</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>614</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>616</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>617</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>619</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>620</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>622</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>623</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>625</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>626</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>628</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>629</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>631</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>632</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
         <v>634</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>635</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
         <v>637</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>638</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>640</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>641</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
         <v>643</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>644</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
         <v>646</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>647</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
         <v>649</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>650</v>
       </c>
-      <c r="C94" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>1048</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>1049</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait"/>
 </worksheet>
@@ -9303,13 +9452,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.19921875" customWidth="1"/>
     <col min="3" max="3" width="69.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9320,38 +9469,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" t="s">
         <v>652</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>653</v>
       </c>
-      <c r="C2" t="s">
-        <v>654</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.69921875" customWidth="1"/>
     <col min="2" max="3" width="53.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9362,549 +9511,560 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" t="s">
         <v>655</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>656</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>658</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>659</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>661</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>662</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>664</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>665</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>670</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>671</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>673</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>674</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>676</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>677</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.8">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>679</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.8">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>682</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.8">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>685</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>686</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.8">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>688</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>689</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>691</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>692</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>694</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>695</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>697</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>698</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>700</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>701</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>764</v>
+      </c>
+      <c r="B18" t="s">
+        <v>765</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>767</v>
+      </c>
+      <c r="B19" t="s">
+        <v>768</v>
+      </c>
+      <c r="C19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>770</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" t="s">
+        <v>772</v>
+      </c>
+      <c r="C22" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>774</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.8">
-      <c r="A18" t="s">
-        <v>765</v>
-      </c>
-      <c r="B18" t="s">
-        <v>766</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>768</v>
-      </c>
-      <c r="B19" t="s">
-        <v>769</v>
-      </c>
-      <c r="C19" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>771</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>772</v>
-      </c>
-      <c r="B22" t="s">
-        <v>773</v>
-      </c>
-      <c r="C22" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="B28" t="s">
+        <v>703</v>
+      </c>
+      <c r="C28" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>705</v>
+      </c>
+      <c r="B29" t="s">
+        <v>706</v>
+      </c>
+      <c r="C29" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>708</v>
+      </c>
+      <c r="B30" t="s">
+        <v>709</v>
+      </c>
+      <c r="C30" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>711</v>
+      </c>
+      <c r="B31" t="s">
+        <v>712</v>
+      </c>
+      <c r="C31" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>714</v>
+      </c>
+      <c r="B32" t="s">
+        <v>715</v>
+      </c>
+      <c r="C32" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>717</v>
+      </c>
+      <c r="B33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C33" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>720</v>
+      </c>
+      <c r="B34" t="s">
+        <v>721</v>
+      </c>
+      <c r="C34" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>723</v>
+      </c>
+      <c r="B35" t="s">
+        <v>724</v>
+      </c>
+      <c r="C35" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>726</v>
+      </c>
+      <c r="B36" t="s">
+        <v>727</v>
+      </c>
+      <c r="C36" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>729</v>
+      </c>
+      <c r="B37" t="s">
+        <v>730</v>
+      </c>
+      <c r="C37" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>775</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>703</v>
-      </c>
-      <c r="B28" t="s">
-        <v>704</v>
-      </c>
-      <c r="C28" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>706</v>
-      </c>
-      <c r="B29" t="s">
-        <v>707</v>
-      </c>
-      <c r="C29" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>709</v>
-      </c>
-      <c r="B30" t="s">
-        <v>710</v>
-      </c>
-      <c r="C30" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>712</v>
-      </c>
-      <c r="B31" t="s">
-        <v>713</v>
-      </c>
-      <c r="C31" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>715</v>
-      </c>
-      <c r="B32" t="s">
-        <v>716</v>
-      </c>
-      <c r="C32" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>718</v>
-      </c>
-      <c r="B33" t="s">
-        <v>719</v>
-      </c>
-      <c r="C33" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>721</v>
-      </c>
-      <c r="B34" t="s">
-        <v>722</v>
-      </c>
-      <c r="C34" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>724</v>
-      </c>
-      <c r="B35" t="s">
-        <v>725</v>
-      </c>
-      <c r="C35" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>727</v>
-      </c>
-      <c r="B36" t="s">
-        <v>728</v>
-      </c>
-      <c r="C36" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.8">
-      <c r="A37" t="s">
-        <v>730</v>
-      </c>
-      <c r="B37" t="s">
-        <v>731</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>776</v>
+      </c>
+      <c r="C38" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>776</v>
-      </c>
-      <c r="B38" t="s">
-        <v>777</v>
-      </c>
-      <c r="C38" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>733</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>734</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>736</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="34" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>737</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>738</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>739</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>741</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>742</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="B43" s="34" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C43" t="s">
         <v>744</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>746</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>747</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="27.6">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>749</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>752</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>753</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="B47" s="34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>755</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B48" t="s">
+        <v>756</v>
+      </c>
+      <c r="C48" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>758</v>
+      </c>
+      <c r="B49" t="s">
+        <v>759</v>
+      </c>
+      <c r="C49" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>761</v>
+      </c>
+      <c r="B50" t="s">
+        <v>762</v>
+      </c>
+      <c r="C50" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>1141</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C52" s="24" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>756</v>
-      </c>
-      <c r="B48" t="s">
-        <v>757</v>
-      </c>
-      <c r="C48" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>759</v>
-      </c>
-      <c r="B49" t="s">
-        <v>760</v>
-      </c>
-      <c r="C49" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>762</v>
-      </c>
-      <c r="B50" t="s">
-        <v>763</v>
-      </c>
-      <c r="C50" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="38" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>1140</v>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
